--- a/docs/source/concept_models/vivarium_swissre_stomachcancer/precancer_states_and_hpylori_memo_21dec2020.xlsx
+++ b/docs/source/concept_models/vivarium_swissre_stomachcancer/precancer_states_and_hpylori_memo_21dec2020.xlsx
@@ -6648,8 +6648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7682,7 +7682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AC44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G20" sqref="G20:H20"/>
     </sheetView>
   </sheetViews>

--- a/docs/source/concept_models/vivarium_swissre_stomachcancer/precancer_states_and_hpylori_memo_21dec2020.xlsx
+++ b/docs/source/concept_models/vivarium_swissre_stomachcancer/precancer_states_and_hpylori_memo_21dec2020.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="19155" windowHeight="6330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="19155" windowHeight="6330" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="pre-cancer state prevalence" sheetId="1" r:id="rId1"/>
-    <sheet name="H pylori by state" sheetId="2" r:id="rId2"/>
-    <sheet name="source figure" sheetId="3" r:id="rId3"/>
-    <sheet name="sample simulant" sheetId="4" r:id="rId4"/>
+    <sheet name="You 1993" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
+    <sheet name="Kang 2015" sheetId="5" r:id="rId3"/>
+    <sheet name="H pylori by state" sheetId="2" r:id="rId4"/>
+    <sheet name="sample simulant" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -321,9 +322,9 @@
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -763,7 +764,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -771,7 +772,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -930,7 +930,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -945,7 +945,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -976,103 +976,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1082,20 +1049,20 @@
     <xf numFmtId="37" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1107,19 +1074,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="5" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="5" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1132,79 +1093,116 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1307,7 +1305,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'pre-cancer state prevalence'!$F$4</c:f>
+              <c:f>'You 1993'!$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1342,7 +1340,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'pre-cancer state prevalence'!$C$5:$C$10</c:f>
+              <c:f>'You 1993'!$C$5:$C$10</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1368,7 +1366,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'pre-cancer state prevalence'!$F$5:$F$10</c:f>
+              <c:f>'You 1993'!$F$5:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1405,7 +1403,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'pre-cancer state prevalence'!$G$4</c:f>
+              <c:f>'You 1993'!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1440,7 +1438,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'pre-cancer state prevalence'!$C$5:$C$10</c:f>
+              <c:f>'You 1993'!$C$5:$C$10</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1466,7 +1464,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'pre-cancer state prevalence'!$G$5:$G$10</c:f>
+              <c:f>'You 1993'!$G$5:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1503,7 +1501,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'pre-cancer state prevalence'!$H$4</c:f>
+              <c:f>'You 1993'!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1538,7 +1536,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'pre-cancer state prevalence'!$C$5:$C$10</c:f>
+              <c:f>'You 1993'!$C$5:$C$10</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1564,7 +1562,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'pre-cancer state prevalence'!$H$5:$H$10</c:f>
+              <c:f>'You 1993'!$H$5:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1601,7 +1599,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'pre-cancer state prevalence'!$I$4</c:f>
+              <c:f>'You 1993'!$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1642,7 +1640,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'pre-cancer state prevalence'!$C$5:$C$10</c:f>
+              <c:f>'You 1993'!$C$5:$C$10</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1668,7 +1666,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'pre-cancer state prevalence'!$I$5:$I$10</c:f>
+              <c:f>'You 1993'!$I$5:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1956,7 +1954,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'pre-cancer state prevalence'!$F$15</c:f>
+              <c:f>'You 1993'!$F$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1991,7 +1989,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>'pre-cancer state prevalence'!$C$16:$C$21</c:f>
+              <c:f>'You 1993'!$C$16:$C$21</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2017,7 +2015,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'pre-cancer state prevalence'!$F$16:$F$21</c:f>
+              <c:f>'You 1993'!$F$16:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2054,7 +2052,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'pre-cancer state prevalence'!$G$15</c:f>
+              <c:f>'You 1993'!$G$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2089,7 +2087,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>'pre-cancer state prevalence'!$C$16:$C$21</c:f>
+              <c:f>'You 1993'!$C$16:$C$21</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2115,7 +2113,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'pre-cancer state prevalence'!$G$16:$G$21</c:f>
+              <c:f>'You 1993'!$G$16:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2152,7 +2150,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'pre-cancer state prevalence'!$H$15</c:f>
+              <c:f>'You 1993'!$H$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2187,7 +2185,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>'pre-cancer state prevalence'!$C$16:$C$21</c:f>
+              <c:f>'You 1993'!$C$16:$C$21</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2213,7 +2211,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'pre-cancer state prevalence'!$H$16:$H$21</c:f>
+              <c:f>'You 1993'!$H$16:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2250,7 +2248,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'pre-cancer state prevalence'!$I$15</c:f>
+              <c:f>'You 1993'!$I$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2291,7 +2289,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>'pre-cancer state prevalence'!$C$16:$C$21</c:f>
+              <c:f>'You 1993'!$C$16:$C$21</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2317,7 +2315,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'pre-cancer state prevalence'!$I$16:$I$21</c:f>
+              <c:f>'You 1993'!$I$16:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2639,7 +2637,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'pre-cancer state prevalence'!$E$35</c:f>
+              <c:f>'Kang 2015'!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2674,7 +2672,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'pre-cancer state prevalence'!$C$36:$C$40</c:f>
+              <c:f>'Kang 2015'!$C$4:$C$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2697,7 +2695,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'pre-cancer state prevalence'!$E$36:$E$40</c:f>
+              <c:f>'Kang 2015'!$E$4:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2722,7 +2720,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4BCD-4624-9851-6DF58150BE7F}"/>
+              <c16:uniqueId val="{00000000-DE9D-420F-A4E8-229641434E98}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2731,7 +2729,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'pre-cancer state prevalence'!$F$35</c:f>
+              <c:f>'Kang 2015'!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2766,7 +2764,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'pre-cancer state prevalence'!$C$36:$C$40</c:f>
+              <c:f>'Kang 2015'!$C$4:$C$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2789,7 +2787,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'pre-cancer state prevalence'!$F$36:$F$40</c:f>
+              <c:f>'Kang 2015'!$F$4:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2814,7 +2812,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4BCD-4624-9851-6DF58150BE7F}"/>
+              <c16:uniqueId val="{00000001-DE9D-420F-A4E8-229641434E98}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2823,7 +2821,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'pre-cancer state prevalence'!$G$35</c:f>
+              <c:f>'Kang 2015'!$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2858,7 +2856,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'pre-cancer state prevalence'!$C$36:$C$40</c:f>
+              <c:f>'Kang 2015'!$C$4:$C$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2881,7 +2879,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'pre-cancer state prevalence'!$G$36:$G$40</c:f>
+              <c:f>'Kang 2015'!$G$4:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2906,7 +2904,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4BCD-4624-9851-6DF58150BE7F}"/>
+              <c16:uniqueId val="{00000002-DE9D-420F-A4E8-229641434E98}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2915,7 +2913,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'pre-cancer state prevalence'!$H$35</c:f>
+              <c:f>'Kang 2015'!$H$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2950,7 +2948,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'pre-cancer state prevalence'!$C$36:$C$40</c:f>
+              <c:f>'Kang 2015'!$C$4:$C$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2973,7 +2971,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'pre-cancer state prevalence'!$H$36:$H$40</c:f>
+              <c:f>'Kang 2015'!$H$4:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2998,7 +2996,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4BCD-4624-9851-6DF58150BE7F}"/>
+              <c16:uniqueId val="{00000003-DE9D-420F-A4E8-229641434E98}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3007,7 +3005,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'pre-cancer state prevalence'!$I$35</c:f>
+              <c:f>'Kang 2015'!$I$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3042,7 +3040,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'pre-cancer state prevalence'!$C$36:$C$40</c:f>
+              <c:f>'Kang 2015'!$C$4:$C$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3065,7 +3063,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'pre-cancer state prevalence'!$I$36:$I$40</c:f>
+              <c:f>'Kang 2015'!$I$4:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3090,7 +3088,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-4BCD-4624-9851-6DF58150BE7F}"/>
+              <c16:uniqueId val="{00000004-DE9D-420F-A4E8-229641434E98}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3099,7 +3097,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'pre-cancer state prevalence'!$J$35</c:f>
+              <c:f>'Kang 2015'!$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3134,7 +3132,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'pre-cancer state prevalence'!$C$36:$C$40</c:f>
+              <c:f>'Kang 2015'!$C$4:$C$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3157,7 +3155,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'pre-cancer state prevalence'!$J$36:$J$40</c:f>
+              <c:f>'Kang 2015'!$J$4:$J$8</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3182,7 +3180,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-4BCD-4624-9851-6DF58150BE7F}"/>
+              <c16:uniqueId val="{00000005-DE9D-420F-A4E8-229641434E98}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6272,23 +6270,30 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>116415</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>168274</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>10583</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>179917</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>359835</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>22226</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6296,16 +6301,54 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>503396</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>151606</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="4305300"/>
+          <a:ext cx="11428571" cy="6352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6335,49 +6378,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>455771</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>65881</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="190500"/>
-          <a:ext cx="11428571" cy="6352381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6646,10 +6646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M41"/>
+  <dimension ref="B2:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6671,12 +6671,12 @@
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -6718,26 +6718,26 @@
       <c r="D5" s="1">
         <v>523</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>0</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>2.7E-2</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="13">
         <v>0.53500000000000003</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="19">
         <v>0.26</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="20">
         <v>0.17399999999999999</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K5" s="4">
-        <f>SUM(E5:J5)</f>
+      <c r="K5" s="3">
+        <f t="shared" ref="K5:K11" si="0">SUM(E5:J5)</f>
         <v>1</v>
       </c>
     </row>
@@ -6748,26 +6748,26 @@
       <c r="D6" s="1">
         <v>374</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>0</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <v>1.6E-2</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="13">
         <v>0.45700000000000002</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="19">
         <v>0.32400000000000001</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="20">
         <v>0.20300000000000001</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <v>0</v>
       </c>
-      <c r="K6" s="4">
-        <f>SUM(E6:J6)</f>
+      <c r="K6" s="3">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -6778,26 +6778,26 @@
       <c r="D7" s="1">
         <v>192</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>0</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <v>1.6E-2</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>0.432</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="18">
         <v>0.32800000000000001</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="21">
         <v>0.219</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K7" s="4">
-        <f>SUM(E7:J7)</f>
+      <c r="K7" s="3">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -6808,26 +6808,26 @@
       <c r="D8" s="1">
         <v>256</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>0</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <v>0.03</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>0.32700000000000001</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="18">
         <v>0.34599999999999997</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="21">
         <v>0.29199999999999998</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K8" s="4">
-        <f>SUM(E8:J8)</f>
+      <c r="K8" s="3">
+        <f t="shared" si="0"/>
         <v>0.99899999999999989</v>
       </c>
     </row>
@@ -6838,26 +6838,26 @@
       <c r="D9" s="1">
         <v>250</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>0</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <v>1.6E-2</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <v>0.26400000000000001</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="17">
         <v>0.40400000000000003</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="22">
         <v>0.308</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K9" s="4">
-        <f>SUM(E9:J9)</f>
+      <c r="K9" s="3">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -6868,85 +6868,85 @@
       <c r="D10" s="1">
         <v>197</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>0</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="12">
         <v>0</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <v>0.26900000000000002</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="17">
         <v>0.34499999999999997</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="22">
         <v>0.36499999999999999</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <v>0.02</v>
       </c>
-      <c r="K10" s="4">
-        <f>SUM(E10:J10)</f>
+      <c r="K10" s="3">
+        <f t="shared" si="0"/>
         <v>0.999</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <f>SUM(D5:D10)</f>
         <v>1792</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>0</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>0.41099999999999998</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <v>0.32200000000000001</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="9">
         <v>0.24099999999999999</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="8">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="K11" s="8">
-        <f>SUM(E11:J11)</f>
+      <c r="K11" s="7">
+        <f t="shared" si="0"/>
         <v>0.998</v>
       </c>
     </row>
-    <row r="12" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="26"/>
+    <row r="12" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="25"/>
     </row>
-    <row r="13" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="26"/>
+    <row r="13" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="25"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E14" s="1"/>
-      <c r="I14" s="6"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
@@ -6988,26 +6988,26 @@
       <c r="D16" s="1">
         <v>488</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>0</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="14">
         <v>2.7E-2</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="13">
         <v>0.57399999999999995</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="19">
         <v>0.30099999999999999</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="20">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="5">
         <v>0</v>
       </c>
-      <c r="K16" s="4">
-        <f>SUM(E16:J16)</f>
+      <c r="K16" s="3">
+        <f t="shared" ref="K16:K22" si="1">SUM(E16:J16)</f>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -7018,26 +7018,26 @@
       <c r="D17" s="1">
         <v>389</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>0</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="14">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="13">
         <v>0.55300000000000005</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="19">
         <v>0.28499999999999998</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="20">
         <v>0.14399999999999999</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="5">
         <v>0</v>
       </c>
-      <c r="K17" s="4">
-        <f>SUM(E17:J17)</f>
+      <c r="K17" s="3">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -7048,26 +7048,26 @@
       <c r="D18" s="1">
         <v>197</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>0</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="10">
         <v>0.503</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="18">
         <v>0.376</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="21">
         <v>0.107</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="5">
         <v>0.01</v>
       </c>
-      <c r="K18" s="4">
-        <f>SUM(E18:J18)</f>
+      <c r="K18" s="3">
+        <f t="shared" si="1"/>
         <v>1.0009999999999999</v>
       </c>
     </row>
@@ -7078,26 +7078,26 @@
       <c r="D19" s="1">
         <v>211</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>0</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="15">
         <v>0</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="10">
         <v>0.374</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="18">
         <v>0.43099999999999999</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="21">
         <v>0.19</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K19" s="4">
-        <f>SUM(E19:J19)</f>
+      <c r="K19" s="3">
+        <f t="shared" si="1"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -7108,26 +7108,26 @@
       <c r="D20" s="1">
         <v>204</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>0</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="12">
         <v>0.01</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="11">
         <v>0.377</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="17">
         <v>0.373</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="22">
         <v>0.24</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="5">
         <v>0</v>
       </c>
-      <c r="K20" s="4">
-        <f>SUM(E20:J20)</f>
+      <c r="K20" s="3">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -7138,535 +7138,331 @@
       <c r="D21" s="1">
         <v>119</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>0</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="12">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="11">
         <v>0.30299999999999999</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="17">
         <v>0.38700000000000001</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="22">
         <v>0.30299999999999999</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="4">
-        <f>SUM(E21:J21)</f>
+      <c r="K21" s="3">
+        <f t="shared" si="1"/>
         <v>1.0009999999999999</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <f>SUM(D16:D21)</f>
         <v>1608</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="8">
         <v>0</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="8">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="8">
         <v>0.48899999999999999</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="8">
         <v>0.33900000000000002</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="9">
         <v>0.155</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="8">
         <v>2E-3</v>
       </c>
-      <c r="K22" s="8">
-        <f>SUM(E22:J22)</f>
+      <c r="K22" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="56" t="s">
+      <c r="C24" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="56"/>
-      <c r="E24" s="57" t="s">
+      <c r="D24" s="55"/>
+      <c r="E24" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="57" t="s">
+      <c r="F24" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="57" t="s">
+      <c r="G24" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="57" t="s">
+      <c r="H24" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="57" t="s">
+      <c r="I24" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="57" t="s">
+      <c r="J24" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="K24" s="58"/>
+      <c r="K24" s="57"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="30">
+      <c r="D25" s="28"/>
+      <c r="E25" s="29">
         <v>0</v>
       </c>
-      <c r="F25" s="31">
+      <c r="F25" s="30">
         <f>0.5*F16+0.5*F5</f>
         <v>2.7E-2</v>
       </c>
-      <c r="G25" s="32">
-        <f t="shared" ref="G25:J25" si="0">0.5*G16+0.5*G5</f>
+      <c r="G25" s="31">
+        <f t="shared" ref="G25:J25" si="2">0.5*G16+0.5*G5</f>
         <v>0.55449999999999999</v>
       </c>
-      <c r="H25" s="33">
-        <f t="shared" si="0"/>
+      <c r="H25" s="32">
+        <f t="shared" si="2"/>
         <v>0.28049999999999997</v>
       </c>
-      <c r="I25" s="34">
-        <f t="shared" si="0"/>
+      <c r="I25" s="33">
+        <f t="shared" si="2"/>
         <v>0.13600000000000001</v>
       </c>
-      <c r="J25" s="35">
-        <f t="shared" si="0"/>
+      <c r="J25" s="34">
+        <f t="shared" si="2"/>
         <v>2E-3</v>
       </c>
-      <c r="K25" s="48">
-        <f>SUM(E25:J25)</f>
+      <c r="K25" s="47">
+        <f t="shared" ref="K25:K31" si="3">SUM(E25:J25)</f>
         <v>1</v>
       </c>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="49"/>
-      <c r="C26" s="29" t="s">
+      <c r="B26" s="48"/>
+      <c r="C26" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="30">
+      <c r="D26" s="28"/>
+      <c r="E26" s="29">
         <v>0</v>
       </c>
-      <c r="F26" s="31">
-        <f t="shared" ref="F26:J26" si="1">0.5*F17+0.5*F6</f>
+      <c r="F26" s="30">
+        <f t="shared" ref="F26:J26" si="4">0.5*F17+0.5*F6</f>
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="G26" s="32">
-        <f t="shared" si="1"/>
+      <c r="G26" s="31">
+        <f t="shared" si="4"/>
         <v>0.505</v>
       </c>
-      <c r="H26" s="33">
-        <f t="shared" si="1"/>
+      <c r="H26" s="32">
+        <f t="shared" si="4"/>
         <v>0.30449999999999999</v>
       </c>
-      <c r="I26" s="34">
-        <f t="shared" si="1"/>
+      <c r="I26" s="33">
+        <f t="shared" si="4"/>
         <v>0.17349999999999999</v>
       </c>
-      <c r="J26" s="35">
-        <f t="shared" si="1"/>
+      <c r="J26" s="34">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K26" s="48">
-        <f>SUM(E26:J26)</f>
+      <c r="K26" s="47">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="49"/>
-      <c r="C27" s="29" t="s">
+      <c r="B27" s="48"/>
+      <c r="C27" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="30">
+      <c r="D27" s="28"/>
+      <c r="E27" s="29">
         <v>0</v>
       </c>
-      <c r="F27" s="37">
-        <f t="shared" ref="F27:J27" si="2">0.5*F18+0.5*F7</f>
+      <c r="F27" s="36">
+        <f t="shared" ref="F27:J27" si="5">0.5*F18+0.5*F7</f>
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="G27" s="38">
-        <f t="shared" si="2"/>
+      <c r="G27" s="37">
+        <f t="shared" si="5"/>
         <v>0.46750000000000003</v>
       </c>
-      <c r="H27" s="39">
-        <f t="shared" si="2"/>
+      <c r="H27" s="38">
+        <f t="shared" si="5"/>
         <v>0.35199999999999998</v>
       </c>
-      <c r="I27" s="40">
-        <f t="shared" si="2"/>
+      <c r="I27" s="39">
+        <f t="shared" si="5"/>
         <v>0.16300000000000001</v>
       </c>
-      <c r="J27" s="35">
-        <f t="shared" si="2"/>
+      <c r="J27" s="34">
+        <f t="shared" si="5"/>
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="K27" s="48">
-        <f>SUM(E27:J27)</f>
+      <c r="K27" s="47">
+        <f t="shared" si="3"/>
         <v>1.0005000000000002</v>
       </c>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="49"/>
-      <c r="C28" s="29" t="s">
+      <c r="B28" s="48"/>
+      <c r="C28" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="30">
+      <c r="D28" s="28"/>
+      <c r="E28" s="29">
         <v>0</v>
       </c>
-      <c r="F28" s="37">
-        <f t="shared" ref="F28:J28" si="3">0.5*F19+0.5*F8</f>
+      <c r="F28" s="36">
+        <f t="shared" ref="F28:J28" si="6">0.5*F19+0.5*F8</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G28" s="38">
+      <c r="G28" s="37">
+        <f t="shared" si="6"/>
+        <v>0.35050000000000003</v>
+      </c>
+      <c r="H28" s="38">
+        <f t="shared" si="6"/>
+        <v>0.38849999999999996</v>
+      </c>
+      <c r="I28" s="39">
+        <f t="shared" si="6"/>
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="J28" s="34">
+        <f t="shared" si="6"/>
+        <v>4.5000000000000005E-3</v>
+      </c>
+      <c r="K28" s="47">
         <f t="shared" si="3"/>
-        <v>0.35050000000000003</v>
-      </c>
-      <c r="H28" s="39">
-        <f t="shared" si="3"/>
-        <v>0.38849999999999996</v>
-      </c>
-      <c r="I28" s="40">
-        <f t="shared" si="3"/>
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="J28" s="35">
-        <f t="shared" si="3"/>
-        <v>4.5000000000000005E-3</v>
-      </c>
-      <c r="K28" s="48">
-        <f>SUM(E28:J28)</f>
         <v>0.99949999999999994</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="49"/>
-      <c r="C29" s="29" t="s">
+      <c r="B29" s="48"/>
+      <c r="C29" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="30">
+      <c r="D29" s="28"/>
+      <c r="E29" s="29">
         <v>0</v>
       </c>
-      <c r="F29" s="41">
-        <f t="shared" ref="F29:J29" si="4">0.5*F20+0.5*F9</f>
+      <c r="F29" s="40">
+        <f t="shared" ref="F29:J29" si="7">0.5*F20+0.5*F9</f>
         <v>1.3000000000000001E-2</v>
       </c>
-      <c r="G29" s="42">
-        <f t="shared" si="4"/>
+      <c r="G29" s="41">
+        <f t="shared" si="7"/>
         <v>0.32050000000000001</v>
       </c>
-      <c r="H29" s="43">
-        <f t="shared" si="4"/>
+      <c r="H29" s="42">
+        <f t="shared" si="7"/>
         <v>0.38850000000000001</v>
       </c>
-      <c r="I29" s="44">
-        <f t="shared" si="4"/>
+      <c r="I29" s="43">
+        <f t="shared" si="7"/>
         <v>0.27400000000000002</v>
       </c>
-      <c r="J29" s="35">
-        <f t="shared" si="4"/>
+      <c r="J29" s="34">
+        <f t="shared" si="7"/>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K29" s="48">
-        <f>SUM(E29:J29)</f>
+      <c r="K29" s="47">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="49"/>
-      <c r="C30" s="29" t="s">
+      <c r="B30" s="48"/>
+      <c r="C30" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="30">
+      <c r="D30" s="28"/>
+      <c r="E30" s="29">
         <v>0</v>
       </c>
-      <c r="F30" s="41">
-        <f t="shared" ref="F30:J30" si="5">0.5*F21+0.5*F10</f>
+      <c r="F30" s="40">
+        <f t="shared" ref="F30:J30" si="8">0.5*F21+0.5*F10</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G30" s="42">
-        <f t="shared" si="5"/>
+      <c r="G30" s="41">
+        <f t="shared" si="8"/>
         <v>0.28600000000000003</v>
       </c>
-      <c r="H30" s="43">
-        <f t="shared" si="5"/>
+      <c r="H30" s="42">
+        <f t="shared" si="8"/>
         <v>0.36599999999999999</v>
       </c>
-      <c r="I30" s="44">
-        <f t="shared" si="5"/>
+      <c r="I30" s="43">
+        <f t="shared" si="8"/>
         <v>0.33399999999999996</v>
       </c>
-      <c r="J30" s="35">
-        <f t="shared" si="5"/>
+      <c r="J30" s="34">
+        <f t="shared" si="8"/>
         <v>0.01</v>
       </c>
-      <c r="K30" s="48">
-        <f>SUM(E30:J30)</f>
+      <c r="K30" s="47">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="50"/>
-      <c r="C31" s="51" t="s">
+      <c r="B31" s="49"/>
+      <c r="C31" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="51"/>
-      <c r="E31" s="52">
+      <c r="D31" s="50"/>
+      <c r="E31" s="51">
         <v>0</v>
       </c>
-      <c r="F31" s="53">
-        <f t="shared" ref="F31:J31" si="6">0.5*F22+0.5*F11</f>
+      <c r="F31" s="52">
+        <f t="shared" ref="F31:J31" si="9">0.5*F22+0.5*F11</f>
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="G31" s="53">
-        <f t="shared" si="6"/>
+      <c r="G31" s="52">
+        <f t="shared" si="9"/>
         <v>0.44999999999999996</v>
       </c>
-      <c r="H31" s="53">
-        <f t="shared" si="6"/>
+      <c r="H31" s="52">
+        <f t="shared" si="9"/>
         <v>0.33050000000000002</v>
       </c>
-      <c r="I31" s="53">
-        <f t="shared" si="6"/>
+      <c r="I31" s="52">
+        <f t="shared" si="9"/>
         <v>0.19800000000000001</v>
       </c>
-      <c r="J31" s="53">
-        <f t="shared" si="6"/>
+      <c r="J31" s="52">
+        <f t="shared" si="9"/>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K31" s="54">
-        <f>SUM(E31:J31)</f>
+      <c r="K31" s="53">
+        <f t="shared" si="3"/>
         <v>0.99899999999999989</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="H35" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="I35" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="J35" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="K35" s="58"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="70">
-        <v>0.15</v>
-      </c>
-      <c r="F36" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="G36" s="32">
-        <v>0.25</v>
-      </c>
-      <c r="H36" s="33">
-        <v>0.1</v>
-      </c>
-      <c r="I36" s="69">
-        <f>K36-J36-H36-G36-F36-E36</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="35">
-        <v>0</v>
-      </c>
-      <c r="K36" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="49"/>
-      <c r="C37" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" s="72">
-        <v>0.09</v>
-      </c>
-      <c r="F37" s="37">
-        <v>0.48</v>
-      </c>
-      <c r="G37" s="38">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="H37" s="39">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="I37" s="69">
-        <f t="shared" ref="I37:I40" si="7">K37-J37-H37-G37-F37-E37</f>
-        <v>9.9999999999997313E-4</v>
-      </c>
-      <c r="J37" s="35">
-        <v>1E-3</v>
-      </c>
-      <c r="K37" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="49"/>
-      <c r="C38" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="E38" s="72">
-        <v>0.05</v>
-      </c>
-      <c r="F38" s="37">
-        <v>0.42</v>
-      </c>
-      <c r="G38" s="38">
-        <v>0.32</v>
-      </c>
-      <c r="H38" s="39">
-        <v>0.2</v>
-      </c>
-      <c r="I38" s="69">
-        <f t="shared" si="7"/>
-        <v>6.9999999999999368E-3</v>
-      </c>
-      <c r="J38" s="35">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="K38" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="49"/>
-      <c r="C39" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" s="71">
-        <v>0.04</v>
-      </c>
-      <c r="F39" s="41">
-        <v>0.39</v>
-      </c>
-      <c r="G39" s="42">
-        <v>0.33</v>
-      </c>
-      <c r="H39" s="43">
-        <v>0.23</v>
-      </c>
-      <c r="I39" s="69">
-        <f t="shared" si="7"/>
-        <v>4.9999999999999836E-3</v>
-      </c>
-      <c r="J39" s="35">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="K39" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="49"/>
-      <c r="C40" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E40" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="F40" s="41">
-        <v>0.42</v>
-      </c>
-      <c r="G40" s="42">
-        <v>0.31</v>
-      </c>
-      <c r="H40" s="43">
-        <v>0.19</v>
-      </c>
-      <c r="I40" s="69">
-        <f t="shared" si="7"/>
-        <v>2.2000000000000061E-2</v>
-      </c>
-      <c r="J40" s="35">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="K40" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="50"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7680,10 +7476,245 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="69">
+        <v>0.15</v>
+      </c>
+      <c r="F4" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="H4" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="68">
+        <f>K4-J4-H4-G4-F4-E4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="34">
+        <v>0</v>
+      </c>
+      <c r="K4" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="48"/>
+      <c r="C5" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="71">
+        <v>0.09</v>
+      </c>
+      <c r="F5" s="36">
+        <v>0.48</v>
+      </c>
+      <c r="G5" s="37">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H5" s="38">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="I5" s="68">
+        <f>K5-J5-H5-G5-F5-E5</f>
+        <v>9.9999999999997313E-4</v>
+      </c>
+      <c r="J5" s="34">
+        <v>1E-3</v>
+      </c>
+      <c r="K5" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="48"/>
+      <c r="C6" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="71">
+        <v>0.05</v>
+      </c>
+      <c r="F6" s="36">
+        <v>0.42</v>
+      </c>
+      <c r="G6" s="37">
+        <v>0.32</v>
+      </c>
+      <c r="H6" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="I6" s="68">
+        <f>K6-J6-H6-G6-F6-E6</f>
+        <v>6.9999999999999368E-3</v>
+      </c>
+      <c r="J6" s="34">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K6" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="48"/>
+      <c r="C7" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="70">
+        <v>0.04</v>
+      </c>
+      <c r="F7" s="40">
+        <v>0.39</v>
+      </c>
+      <c r="G7" s="41">
+        <v>0.33</v>
+      </c>
+      <c r="H7" s="42">
+        <v>0.23</v>
+      </c>
+      <c r="I7" s="68">
+        <f>K7-J7-H7-G7-F7-E7</f>
+        <v>4.9999999999999836E-3</v>
+      </c>
+      <c r="J7" s="34">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K7" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="48"/>
+      <c r="C8" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="70">
+        <v>0.05</v>
+      </c>
+      <c r="F8" s="40">
+        <v>0.42</v>
+      </c>
+      <c r="G8" s="41">
+        <v>0.31</v>
+      </c>
+      <c r="H8" s="42">
+        <v>0.19</v>
+      </c>
+      <c r="I8" s="68">
+        <f>K8-J8-H8-G8-F8-E8</f>
+        <v>2.2000000000000061E-2</v>
+      </c>
+      <c r="J8" s="34">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K8" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="49"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="53"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AC44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20:H20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7708,1472 +7739,1514 @@
     <col min="20" max="20" width="13.85546875" customWidth="1"/>
     <col min="25" max="25" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.5703125" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="60" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="60">
+      <c r="E2" s="59">
         <v>1000</v>
       </c>
-      <c r="N2" s="143" t="s">
+      <c r="N2" s="135" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="143"/>
-      <c r="P2" s="143"/>
-      <c r="Q2" s="143"/>
-      <c r="R2" s="143"/>
-      <c r="S2" s="143"/>
-      <c r="T2" s="143"/>
-      <c r="U2" s="143"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="135"/>
+      <c r="T2" s="135"/>
+      <c r="U2" s="135"/>
     </row>
     <row r="3" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="60" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="61"/>
-      <c r="D4" s="104" t="s">
+      <c r="A4" s="61"/>
+      <c r="B4" s="60"/>
+      <c r="D4" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="105" t="s">
+      <c r="E4" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="106" t="s">
+      <c r="F4" s="72"/>
+      <c r="G4" s="153" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="106"/>
-      <c r="I4" s="105" t="s">
+      <c r="H4" s="153"/>
+      <c r="I4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="105" t="s">
+      <c r="J4" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="105" t="s">
+      <c r="K4" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="107" t="s">
+      <c r="L4" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="N4" s="127" t="s">
+      <c r="N4" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="128"/>
-      <c r="P4" s="129" t="s">
+      <c r="O4" s="114"/>
+      <c r="P4" s="136" t="s">
         <v>45</v>
       </c>
-      <c r="Q4" s="129"/>
-      <c r="R4" s="130" t="s">
+      <c r="Q4" s="136"/>
+      <c r="R4" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="S4" s="130" t="s">
+      <c r="S4" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="130" t="s">
+      <c r="T4" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="131"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="63"/>
-      <c r="Y4" s="68" t="s">
+      <c r="U4" s="116"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="Z4" s="68" t="s">
+      <c r="Z4" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="AA4" s="68" t="s">
+      <c r="AA4" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="AB4" s="68" t="s">
+      <c r="AB4" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="AC4" s="153"/>
+      <c r="AC4" s="132"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="108" t="s">
+      <c r="D5" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="100" t="s">
+      <c r="E5" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="85" t="s">
+      <c r="F5" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="86">
+      <c r="G5" s="152">
         <f>L5-K5-J5-I5</f>
-        <v>235</v>
-      </c>
-      <c r="H5" s="86"/>
-      <c r="I5" s="87">
+        <v>309.5</v>
+      </c>
+      <c r="H5" s="152"/>
+      <c r="I5" s="82">
         <f>I9*I7</f>
-        <v>225</v>
-      </c>
-      <c r="J5" s="87">
+        <v>162.5</v>
+      </c>
+      <c r="J5" s="82">
         <f t="shared" ref="J5:K5" si="0">J9*J7</f>
-        <v>90</v>
-      </c>
-      <c r="K5" s="87">
+        <v>78</v>
+      </c>
+      <c r="K5" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L5" s="109">
+      <c r="L5" s="97">
         <v>550</v>
       </c>
-      <c r="N5" s="100" t="s">
+      <c r="N5" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="85" t="s">
+      <c r="O5" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="139">
+      <c r="P5" s="143">
         <f>(G7*G9/1000)/0.55</f>
-        <v>0.42727272727272719</v>
-      </c>
-      <c r="Q5" s="139"/>
-      <c r="R5" s="140">
+        <v>0.56272727272727263</v>
+      </c>
+      <c r="Q5" s="143"/>
+      <c r="R5" s="121">
         <f>(I7*I9/1000)/0.55</f>
-        <v>0.40909090909090906</v>
-      </c>
-      <c r="S5" s="140">
+        <v>0.29545454545454541</v>
+      </c>
+      <c r="S5" s="121">
         <f>(J7*J9/1000)/0.55</f>
-        <v>0.16363636363636361</v>
-      </c>
-      <c r="T5" s="140">
+        <v>0.14181818181818182</v>
+      </c>
+      <c r="T5" s="121">
         <f>(K7*K9/1000)/0.55</f>
         <v>0</v>
       </c>
-      <c r="U5" s="142">
+      <c r="U5" s="123">
         <f>SUM(P5:T5)</f>
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="W5" s="151" t="s">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="W5" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="X5" s="85"/>
-      <c r="Y5" s="154">
+      <c r="X5" s="81"/>
+      <c r="Y5" s="133">
         <v>0.42699999999999999</v>
       </c>
-      <c r="Z5" s="154">
+      <c r="Z5" s="133">
         <v>0.45864045864045866</v>
       </c>
-      <c r="AA5" s="154">
+      <c r="AA5" s="133">
         <v>0.2424242424242424</v>
       </c>
-      <c r="AB5" s="154">
+      <c r="AB5" s="133">
         <v>1.6380016380015937E-3</v>
       </c>
-      <c r="AC5" s="77"/>
+      <c r="AC5" s="75"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="61" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="89" t="s">
+      <c r="D6" s="96"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="90">
+      <c r="G6" s="141">
         <f>G7-G5</f>
-        <v>415</v>
-      </c>
-      <c r="H6" s="90"/>
-      <c r="I6" s="91">
+        <v>340.5</v>
+      </c>
+      <c r="H6" s="141"/>
+      <c r="I6" s="84">
         <f t="shared" ref="I6:J6" si="1">I7-I5</f>
-        <v>25</v>
-      </c>
-      <c r="J6" s="91">
+        <v>87.5</v>
+      </c>
+      <c r="J6" s="84">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="K6" s="91">
+        <v>22</v>
+      </c>
+      <c r="K6" s="84">
         <f>K7-K5</f>
         <v>0</v>
       </c>
-      <c r="L6" s="110">
+      <c r="L6" s="98">
         <v>450</v>
       </c>
-      <c r="N6" s="101"/>
-      <c r="O6" s="89" t="s">
+      <c r="N6" s="138"/>
+      <c r="O6" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="90" t="s">
+      <c r="P6" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="Q6" s="90"/>
-      <c r="R6" s="91" t="s">
+      <c r="Q6" s="141"/>
+      <c r="R6" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="S6" s="91" t="s">
+      <c r="S6" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="T6" s="91" t="s">
+      <c r="T6" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="U6" s="92">
+      <c r="U6" s="85">
         <v>1</v>
       </c>
       <c r="W6" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Y6" s="59">
+      <c r="Y6" s="58">
         <v>0.30099999999999999</v>
       </c>
-      <c r="Z6" s="5">
+      <c r="Z6" s="4">
         <v>0.52521199963526943</v>
       </c>
-      <c r="AA6" s="5">
+      <c r="AA6" s="4">
         <v>0.32825749977204338</v>
       </c>
-      <c r="AB6" s="5">
+      <c r="AB6" s="4">
         <v>1.1489012492021417E-2</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="61" t="s">
+      <c r="A7" s="27"/>
+      <c r="B7" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="93" t="s">
+      <c r="D7" s="48"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="94">
+      <c r="G7" s="146">
         <f>((G36+H36)/(1-L36))*$E$2</f>
         <v>650</v>
       </c>
-      <c r="H7" s="94"/>
-      <c r="I7" s="95">
+      <c r="H7" s="146"/>
+      <c r="I7" s="87">
         <f>(I36/(1-L36))*$E$2</f>
         <v>250</v>
       </c>
-      <c r="J7" s="95">
+      <c r="J7" s="87">
         <f>(J36/(1-M36))*$E$2</f>
         <v>100</v>
       </c>
-      <c r="K7" s="95">
+      <c r="K7" s="87">
         <f>(K36/(1-N36))*$E$2</f>
         <v>0</v>
       </c>
-      <c r="L7" s="111">
+      <c r="L7" s="99">
         <f>SUM(G7:K7)</f>
         <v>1000</v>
       </c>
-      <c r="N7" s="132"/>
-      <c r="O7" s="133" t="s">
+      <c r="N7" s="139"/>
+      <c r="O7" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="134"/>
-      <c r="Q7" s="134"/>
-      <c r="R7" s="135"/>
-      <c r="S7" s="135"/>
-      <c r="T7" s="135"/>
-      <c r="U7" s="136"/>
-      <c r="W7" s="152" t="s">
+      <c r="P7" s="142"/>
+      <c r="Q7" s="142"/>
+      <c r="R7" s="118"/>
+      <c r="S7" s="118"/>
+      <c r="T7" s="118"/>
+      <c r="U7" s="119"/>
+      <c r="W7" s="131" t="s">
         <v>92</v>
       </c>
-      <c r="Y7" s="59">
+      <c r="Y7" s="58">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Z7" s="5">
+      <c r="Z7" s="4">
         <v>0.542713567839196</v>
       </c>
-      <c r="AA7" s="5">
+      <c r="AA7" s="4">
         <v>0.37825491091822755</v>
       </c>
-      <c r="AB7" s="5">
+      <c r="AB7" s="4">
         <v>8.2229328460483968E-3</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="61" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="126" t="s">
+      <c r="D8" s="48"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="124">
+      <c r="G8" s="147">
         <f>G7/$L$7</f>
         <v>0.65</v>
       </c>
-      <c r="H8" s="124"/>
-      <c r="I8" s="125">
+      <c r="H8" s="147"/>
+      <c r="I8" s="111">
         <f t="shared" ref="I8:L8" si="2">I7/$L$7</f>
         <v>0.25</v>
       </c>
-      <c r="J8" s="125">
+      <c r="J8" s="111">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="K8" s="125">
+      <c r="K8" s="111">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L8" s="112">
+      <c r="L8" s="100">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W8" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Y8" s="59">
+      <c r="Y8" s="58">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z8" s="5">
+      <c r="Z8" s="4">
         <v>0.51136363636363635</v>
       </c>
-      <c r="AA8" s="5">
+      <c r="AA8" s="4">
         <v>0.31341642228738997</v>
       </c>
-      <c r="AB8" s="5">
+      <c r="AB8" s="4">
         <v>3.6290322580645254E-2</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="61" t="s">
+      <c r="A9" s="27"/>
+      <c r="B9" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="98" t="s">
+      <c r="D9" s="48"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="99">
+      <c r="G9" s="151">
         <f>G5/G7</f>
-        <v>0.36153846153846153</v>
-      </c>
-      <c r="H9" s="99"/>
-      <c r="I9" s="141">
-        <v>0.9</v>
-      </c>
-      <c r="J9" s="141">
-        <v>0.9</v>
-      </c>
-      <c r="K9" s="141">
-        <v>0.9</v>
-      </c>
-      <c r="L9" s="113"/>
+        <v>0.47615384615384615</v>
+      </c>
+      <c r="H9" s="151"/>
+      <c r="I9" s="122">
+        <v>0.65</v>
+      </c>
+      <c r="J9" s="122">
+        <v>0.78</v>
+      </c>
+      <c r="K9" s="122">
+        <v>0.78</v>
+      </c>
+      <c r="L9" s="101"/>
       <c r="W9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Y9" s="59">
+      <c r="Y9" s="58">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Z9" s="5">
+      <c r="Z9" s="4">
         <v>0.51136363636363635</v>
       </c>
-      <c r="AA9" s="5">
+      <c r="AA9" s="4">
         <v>0.31341642228738997</v>
       </c>
-      <c r="AB9" s="5">
+      <c r="AB9" s="4">
         <v>3.6290322580645254E-2</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="D10" s="49"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="115"/>
-      <c r="L10" s="116"/>
-      <c r="Y10" s="28"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="104"/>
+      <c r="Y10" s="27"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="D11" s="108"/>
-      <c r="E11" s="100" t="s">
+      <c r="D11" s="96"/>
+      <c r="E11" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="85" t="s">
+      <c r="F11" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="86">
+      <c r="G11" s="152">
         <f>L11-K11-J11-I11</f>
-        <v>163.51351351351349</v>
-      </c>
-      <c r="H11" s="86"/>
-      <c r="I11" s="87">
+        <v>251.48148148148147</v>
+      </c>
+      <c r="H11" s="152"/>
+      <c r="I11" s="82">
         <f>I15*I13</f>
-        <v>252.25225225225228</v>
-      </c>
-      <c r="J11" s="87">
+        <v>182.1821821821822</v>
+      </c>
+      <c r="J11" s="82">
         <f t="shared" ref="J11:K11" si="3">J15*J13</f>
-        <v>133.33333333333334</v>
-      </c>
-      <c r="K11" s="87">
+        <v>115.55555555555556</v>
+      </c>
+      <c r="K11" s="82">
         <f t="shared" si="3"/>
-        <v>0.9009009009008766</v>
-      </c>
-      <c r="L11" s="109">
+        <v>0.78078078078075974</v>
+      </c>
+      <c r="L11" s="97">
         <v>550</v>
       </c>
-      <c r="N11" s="127" t="s">
+      <c r="N11" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="O11" s="128"/>
-      <c r="P11" s="129" t="s">
+      <c r="O11" s="114"/>
+      <c r="P11" s="136" t="s">
         <v>45</v>
       </c>
-      <c r="Q11" s="129"/>
-      <c r="R11" s="130" t="s">
+      <c r="Q11" s="136"/>
+      <c r="R11" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="S11" s="130" t="s">
+      <c r="S11" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="T11" s="130" t="s">
+      <c r="T11" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="U11" s="131"/>
-      <c r="Y11" s="28"/>
+      <c r="U11" s="116"/>
+      <c r="Y11" s="27"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="D12" s="108"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="89" t="s">
+      <c r="D12" s="96"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="90">
+      <c r="G12" s="141">
         <f>G13-G11</f>
-        <v>407.05705705705697</v>
-      </c>
-      <c r="H12" s="90"/>
-      <c r="I12" s="91">
+        <v>319.08908908908899</v>
+      </c>
+      <c r="H12" s="141"/>
+      <c r="I12" s="84">
         <f t="shared" ref="I12" si="4">I13-I11</f>
-        <v>28.028028028028018</v>
-      </c>
-      <c r="J12" s="91">
+        <v>98.098098098098092</v>
+      </c>
+      <c r="J12" s="84">
         <f t="shared" ref="J12" si="5">J13-J11</f>
-        <v>14.81481481481481</v>
-      </c>
-      <c r="K12" s="91">
+        <v>32.592592592592595</v>
+      </c>
+      <c r="K12" s="84">
         <f>K13-K11</f>
-        <v>0.1001001001000974</v>
-      </c>
-      <c r="L12" s="110">
+        <v>0.22022022022021426</v>
+      </c>
+      <c r="L12" s="98">
         <v>450</v>
       </c>
-      <c r="N12" s="100" t="s">
+      <c r="N12" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="O12" s="85" t="s">
+      <c r="O12" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="P12" s="139">
+      <c r="P12" s="143">
         <f>(G13*G15/1000)/0.55</f>
         <v>0.30084630084630076</v>
       </c>
-      <c r="Q12" s="139"/>
-      <c r="R12" s="140">
+      <c r="Q12" s="143"/>
+      <c r="R12" s="121">
         <f>(I13*I15/1000)/0.55</f>
-        <v>0.45864045864045866</v>
-      </c>
-      <c r="S12" s="140">
+        <v>0.33124033124033125</v>
+      </c>
+      <c r="S12" s="121">
         <f>(J13*J15/1000)/0.55</f>
-        <v>0.2424242424242424</v>
-      </c>
-      <c r="T12" s="140">
+        <v>0.21010101010101007</v>
+      </c>
+      <c r="T12" s="121">
         <f>(K13*K15/1000)/0.55</f>
-        <v>1.6380016380015937E-3</v>
-      </c>
-      <c r="U12" s="142">
+        <v>1.4196014196013811E-3</v>
+      </c>
+      <c r="U12" s="123">
         <f>SUM(P12:T12)</f>
-        <v>1.0035490035490033</v>
-      </c>
-      <c r="Y12" s="28"/>
+        <v>0.8436072436072436</v>
+      </c>
+      <c r="Y12" s="27"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="D13" s="108"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="93" t="s">
+      <c r="D13" s="96"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="94">
+      <c r="G13" s="146">
         <f>((G37+H37)/(1-L37))*$E$2</f>
         <v>570.57057057057045</v>
       </c>
-      <c r="H13" s="94"/>
-      <c r="I13" s="95">
+      <c r="H13" s="146"/>
+      <c r="I13" s="87">
         <f>(I37/(1-L37))*$E$2</f>
         <v>280.28028028028029</v>
       </c>
-      <c r="J13" s="95">
+      <c r="J13" s="87">
         <f>(J37/(1-L37))*$E$2</f>
         <v>148.14814814814815</v>
       </c>
-      <c r="K13" s="95">
+      <c r="K13" s="87">
         <f>(K37/(1-L37))*$E$2</f>
         <v>1.001001001000974</v>
       </c>
-      <c r="L13" s="111">
+      <c r="L13" s="99">
         <f>SUM(G13:K13)</f>
         <v>999.99999999999989</v>
       </c>
-      <c r="N13" s="101"/>
-      <c r="O13" s="89" t="s">
+      <c r="N13" s="138"/>
+      <c r="O13" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="P13" s="90" t="s">
+      <c r="P13" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="Q13" s="90"/>
-      <c r="R13" s="91" t="s">
+      <c r="Q13" s="141"/>
+      <c r="R13" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="S13" s="91" t="s">
+      <c r="S13" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="T13" s="91" t="s">
+      <c r="T13" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="U13" s="92">
+      <c r="U13" s="85">
         <v>1</v>
       </c>
-      <c r="Y13" s="28"/>
+      <c r="Y13" s="27"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="D14" s="108"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="126" t="s">
+      <c r="D14" s="96"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="124">
+      <c r="G14" s="147">
         <f>G13/$L$7</f>
         <v>0.57057057057057048</v>
       </c>
-      <c r="H14" s="124"/>
-      <c r="I14" s="125">
+      <c r="H14" s="147"/>
+      <c r="I14" s="111">
         <f t="shared" ref="I14" si="6">I13/$L$7</f>
         <v>0.28028028028028029</v>
       </c>
-      <c r="J14" s="125">
+      <c r="J14" s="111">
         <f t="shared" ref="J14" si="7">J13/$L$7</f>
         <v>0.14814814814814814</v>
       </c>
-      <c r="K14" s="125">
+      <c r="K14" s="111">
         <f t="shared" ref="K14" si="8">K13/$L$7</f>
         <v>1.0010010010009741E-3</v>
       </c>
-      <c r="L14" s="112">
+      <c r="L14" s="100">
         <f>SUM(G14:K14)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="N14" s="132"/>
-      <c r="O14" s="133" t="s">
+      <c r="N14" s="139"/>
+      <c r="O14" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="P14" s="134"/>
-      <c r="Q14" s="134"/>
-      <c r="R14" s="135"/>
-      <c r="S14" s="135"/>
-      <c r="T14" s="135"/>
-      <c r="U14" s="136"/>
-      <c r="Y14" s="28"/>
+      <c r="P14" s="142"/>
+      <c r="Q14" s="142"/>
+      <c r="R14" s="118"/>
+      <c r="S14" s="118"/>
+      <c r="T14" s="118"/>
+      <c r="U14" s="119"/>
+      <c r="Y14" s="27"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="D15" s="108"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="98" t="s">
+      <c r="D15" s="96"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="99">
+      <c r="G15" s="151">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H15" s="99"/>
-      <c r="I15" s="141">
-        <v>0.9</v>
-      </c>
-      <c r="J15" s="141">
-        <v>0.9</v>
-      </c>
-      <c r="K15" s="141">
-        <v>0.9</v>
-      </c>
-      <c r="L15" s="113"/>
-      <c r="Y15" s="28"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="122">
+        <v>0.65</v>
+      </c>
+      <c r="J15" s="122">
+        <v>0.78</v>
+      </c>
+      <c r="K15" s="122">
+        <v>0.78</v>
+      </c>
+      <c r="L15" s="101"/>
+      <c r="Y15" s="27"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="D16" s="108"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="117"/>
-      <c r="L16" s="116"/>
-      <c r="P16" s="28"/>
-      <c r="Y16" s="28"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="104"/>
+      <c r="P16" s="27"/>
+      <c r="Y16" s="27"/>
     </row>
     <row r="17" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D17" s="108"/>
-      <c r="E17" s="100" t="s">
+      <c r="D17" s="96"/>
+      <c r="E17" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="85" t="s">
+      <c r="F17" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="86">
+      <c r="G17" s="152">
         <f>L17-K17-J17-I17</f>
-        <v>74.272818455366064</v>
-      </c>
-      <c r="H17" s="86"/>
-      <c r="I17" s="87">
+        <v>179.42828485456371</v>
+      </c>
+      <c r="H17" s="152"/>
+      <c r="I17" s="82">
         <f>I21*I19</f>
-        <v>288.86659979939822</v>
-      </c>
-      <c r="J17" s="87">
+        <v>208.62587763289869</v>
+      </c>
+      <c r="J17" s="82">
         <f t="shared" ref="J17:K17" si="9">J21*J19</f>
-        <v>180.54162487462389</v>
-      </c>
-      <c r="K17" s="87">
+        <v>156.46940822467405</v>
+      </c>
+      <c r="K17" s="82">
         <f t="shared" si="9"/>
-        <v>6.3189568706117791</v>
-      </c>
-      <c r="L17" s="109">
+        <v>5.4764292878635423</v>
+      </c>
+      <c r="L17" s="97">
         <v>550</v>
       </c>
-      <c r="N17" s="127" t="s">
+      <c r="N17" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="O17" s="128"/>
-      <c r="P17" s="129" t="s">
+      <c r="O17" s="114"/>
+      <c r="P17" s="136" t="s">
         <v>45</v>
       </c>
-      <c r="Q17" s="129"/>
-      <c r="R17" s="130" t="s">
+      <c r="Q17" s="136"/>
+      <c r="R17" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="S17" s="130" t="s">
+      <c r="S17" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="T17" s="130" t="s">
+      <c r="T17" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="U17" s="131"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
+      <c r="U17" s="116"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
     </row>
     <row r="18" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D18" s="49"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="89" t="s">
+      <c r="D18" s="48"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="90">
+      <c r="G18" s="141">
         <f>G19-G17</f>
-        <v>397.14142427281848</v>
-      </c>
-      <c r="H18" s="90"/>
-      <c r="I18" s="91">
+        <v>291.98595787362081</v>
+      </c>
+      <c r="H18" s="141"/>
+      <c r="I18" s="84">
         <f t="shared" ref="I18" si="10">I19-I17</f>
-        <v>32.096288866599764</v>
-      </c>
-      <c r="J18" s="91">
+        <v>112.33701103309929</v>
+      </c>
+      <c r="J18" s="84">
         <f t="shared" ref="J18" si="11">J19-J17</f>
-        <v>20.060180541624874</v>
-      </c>
-      <c r="K18" s="91">
+        <v>44.132397191574711</v>
+      </c>
+      <c r="K18" s="84">
         <f>K19-K17</f>
-        <v>0.70210631895686415</v>
-      </c>
-      <c r="L18" s="110">
+        <v>1.544633901705101</v>
+      </c>
+      <c r="L18" s="98">
         <v>450</v>
       </c>
-      <c r="N18" s="100" t="s">
+      <c r="N18" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="O18" s="85" t="s">
+      <c r="O18" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="P18" s="137">
+      <c r="P18" s="140">
         <f>(G19*G21/1000)/0.55</f>
-        <v>0.13504148810066557</v>
-      </c>
-      <c r="Q18" s="137"/>
-      <c r="R18" s="138">
+        <v>0.32623324519011582</v>
+      </c>
+      <c r="Q18" s="140"/>
+      <c r="R18" s="120">
         <f>(I19*I21/1000)/0.55</f>
-        <v>0.52521199963526943</v>
-      </c>
-      <c r="S18" s="138">
+        <v>0.37931977751436124</v>
+      </c>
+      <c r="S18" s="120">
         <f>(J19*J21/1000)/0.55</f>
-        <v>0.32825749977204338</v>
-      </c>
-      <c r="T18" s="138">
+        <v>0.28448983313577098</v>
+      </c>
+      <c r="T18" s="120">
         <f>(K19*K21/1000)/0.55</f>
-        <v>1.1489012492021417E-2</v>
-      </c>
-      <c r="U18" s="142">
+        <v>9.9571441597518951E-3</v>
+      </c>
+      <c r="U18" s="123">
         <f>SUM(P18:T18)</f>
-        <v>0.99999999999999967</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D19" s="49"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="93" t="s">
+      <c r="D19" s="48"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="94">
+      <c r="G19" s="146">
         <f>((G38+H38)/(1-L38))*$E$2</f>
         <v>471.41424272818455</v>
       </c>
-      <c r="H19" s="94"/>
-      <c r="I19" s="95">
+      <c r="H19" s="146"/>
+      <c r="I19" s="87">
         <f>(I38/(1-L38))*$E$2</f>
         <v>320.96288866599798</v>
       </c>
-      <c r="J19" s="95">
+      <c r="J19" s="87">
         <f>(J38/(1-L38))*$E$2</f>
         <v>200.60180541624877</v>
       </c>
-      <c r="K19" s="95">
+      <c r="K19" s="87">
         <f>(K38/(1-L38))*$E$2</f>
         <v>7.0210631895686433</v>
       </c>
-      <c r="L19" s="111">
+      <c r="L19" s="99">
         <f>SUM(G19:K19)</f>
         <v>999.99999999999989</v>
       </c>
-      <c r="N19" s="101"/>
-      <c r="O19" s="89" t="s">
+      <c r="N19" s="138"/>
+      <c r="O19" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="P19" s="90" t="s">
+      <c r="P19" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="Q19" s="90"/>
-      <c r="R19" s="91" t="s">
+      <c r="Q19" s="141"/>
+      <c r="R19" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="S19" s="91" t="s">
+      <c r="S19" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="T19" s="91" t="s">
+      <c r="T19" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="U19" s="92">
+      <c r="U19" s="85">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D20" s="49"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="126" t="s">
+      <c r="D20" s="48"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="124">
+      <c r="G20" s="147">
         <f>G19/$L$7</f>
         <v>0.47141424272818455</v>
       </c>
-      <c r="H20" s="124"/>
-      <c r="I20" s="125">
+      <c r="H20" s="147"/>
+      <c r="I20" s="111">
         <f t="shared" ref="I20" si="12">I19/$L$7</f>
         <v>0.32096288866599798</v>
       </c>
-      <c r="J20" s="125">
+      <c r="J20" s="111">
         <f t="shared" ref="J20" si="13">J19/$L$7</f>
         <v>0.20060180541624878</v>
       </c>
-      <c r="K20" s="125">
+      <c r="K20" s="111">
         <f t="shared" ref="K20" si="14">K19/$L$7</f>
         <v>7.021063189568643E-3</v>
       </c>
-      <c r="L20" s="112">
+      <c r="L20" s="100">
         <f>SUM(G20:K20)</f>
         <v>1</v>
       </c>
-      <c r="N20" s="132"/>
-      <c r="O20" s="133" t="s">
+      <c r="N20" s="139"/>
+      <c r="O20" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="P20" s="134"/>
-      <c r="Q20" s="134"/>
-      <c r="R20" s="135"/>
-      <c r="S20" s="135"/>
-      <c r="T20" s="135"/>
-      <c r="U20" s="136"/>
+      <c r="P20" s="142"/>
+      <c r="Q20" s="142"/>
+      <c r="R20" s="118"/>
+      <c r="S20" s="118"/>
+      <c r="T20" s="118"/>
+      <c r="U20" s="119"/>
     </row>
     <row r="21" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D21" s="49"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="98" t="s">
+      <c r="D21" s="48"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="99">
+      <c r="G21" s="151">
         <f>G17/G19</f>
-        <v>0.15755319148936164</v>
-      </c>
-      <c r="H21" s="99"/>
-      <c r="I21" s="141">
-        <v>0.9</v>
-      </c>
-      <c r="J21" s="141">
-        <v>0.9</v>
-      </c>
-      <c r="K21" s="141">
-        <v>0.9</v>
-      </c>
-      <c r="L21" s="113"/>
+        <v>0.3806170212765958</v>
+      </c>
+      <c r="H21" s="151"/>
+      <c r="I21" s="122">
+        <v>0.65</v>
+      </c>
+      <c r="J21" s="122">
+        <v>0.78</v>
+      </c>
+      <c r="K21" s="122">
+        <v>0.78</v>
+      </c>
+      <c r="L21" s="101"/>
     </row>
     <row r="22" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D22" s="49"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="116"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="104"/>
     </row>
     <row r="23" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D23" s="49"/>
-      <c r="E23" s="84" t="s">
+      <c r="D23" s="48"/>
+      <c r="E23" s="149" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="85" t="s">
+      <c r="F23" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="86">
+      <c r="G23" s="152">
         <f>L23-K23-J23-I23</f>
-        <v>38.94472361809045</v>
-      </c>
-      <c r="H23" s="86"/>
-      <c r="I23" s="87">
+        <v>150.20100502512565</v>
+      </c>
+      <c r="H23" s="152"/>
+      <c r="I23" s="82">
         <f>I27*I25</f>
-        <v>298.4924623115578</v>
-      </c>
-      <c r="J23" s="87">
+        <v>215.5778894472362</v>
+      </c>
+      <c r="J23" s="82">
         <f t="shared" ref="J23:K23" si="15">J27*J25</f>
-        <v>208.04020100502515</v>
-      </c>
-      <c r="K23" s="87">
+        <v>180.30150753768845</v>
+      </c>
+      <c r="K23" s="82">
         <f t="shared" si="15"/>
-        <v>4.5226130653266186</v>
-      </c>
-      <c r="L23" s="109">
+        <v>3.919597989949736</v>
+      </c>
+      <c r="L23" s="97">
         <v>550</v>
       </c>
-      <c r="N23" s="127" t="s">
+      <c r="N23" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="O23" s="128"/>
-      <c r="P23" s="129" t="s">
+      <c r="O23" s="114"/>
+      <c r="P23" s="136" t="s">
         <v>45</v>
       </c>
-      <c r="Q23" s="129"/>
-      <c r="R23" s="130" t="s">
+      <c r="Q23" s="136"/>
+      <c r="R23" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="S23" s="130" t="s">
+      <c r="S23" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="T23" s="130" t="s">
+      <c r="T23" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="U23" s="131"/>
+      <c r="U23" s="116"/>
     </row>
     <row r="24" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D24" s="49"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="89" t="s">
+      <c r="D24" s="48"/>
+      <c r="E24" s="150"/>
+      <c r="F24" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="90">
+      <c r="G24" s="141">
         <f>G25-G23</f>
-        <v>393.21608040201005</v>
-      </c>
-      <c r="H24" s="90"/>
-      <c r="I24" s="91">
+        <v>281.95979899497485</v>
+      </c>
+      <c r="H24" s="141"/>
+      <c r="I24" s="84">
         <f t="shared" ref="I24" si="16">I25-I23</f>
-        <v>33.165829145728651</v>
-      </c>
-      <c r="J24" s="91">
+        <v>116.08040201005025</v>
+      </c>
+      <c r="J24" s="84">
         <f t="shared" ref="J24" si="17">J25-J23</f>
-        <v>23.115577889447223</v>
-      </c>
-      <c r="K24" s="91">
+        <v>50.854271356783926</v>
+      </c>
+      <c r="K24" s="84">
         <f>K25-K23</f>
-        <v>0.50251256281406853</v>
-      </c>
-      <c r="L24" s="110">
+        <v>1.1055276381909511</v>
+      </c>
+      <c r="L24" s="98">
         <v>450</v>
       </c>
-      <c r="N24" s="100" t="s">
+      <c r="N24" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="O24" s="85" t="s">
+      <c r="O24" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="P24" s="137">
+      <c r="P24" s="140">
         <f>(G25*G27/1000)/0.55</f>
-        <v>7.080858839652808E-2</v>
-      </c>
-      <c r="Q24" s="137"/>
-      <c r="R24" s="138">
+        <v>0.27309273640931936</v>
+      </c>
+      <c r="Q24" s="140"/>
+      <c r="R24" s="120">
         <f>(I25*I27/1000)/0.55</f>
-        <v>0.542713567839196</v>
-      </c>
-      <c r="S24" s="138">
+        <v>0.39195979899497491</v>
+      </c>
+      <c r="S24" s="120">
         <f>(J25*J27/1000)/0.55</f>
-        <v>0.37825491091822755</v>
-      </c>
-      <c r="T24" s="138">
+        <v>0.32782092279579716</v>
+      </c>
+      <c r="T24" s="120">
         <f>(K25*K27/1000)/0.55</f>
-        <v>8.2229328460483968E-3</v>
-      </c>
-      <c r="U24" s="142">
+        <v>7.1265417999086108E-3</v>
+      </c>
+      <c r="U24" s="123">
         <f>SUM(P24:T24)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="25" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D25" s="49"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="93" t="s">
+      <c r="D25" s="48"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="94">
+      <c r="G25" s="146">
         <f>((G39+H39)/(1-L39))*$E$2</f>
         <v>432.1608040201005</v>
       </c>
-      <c r="H25" s="94"/>
-      <c r="I25" s="95">
+      <c r="H25" s="146"/>
+      <c r="I25" s="87">
         <f>(I39/(1-L39))*$E$2</f>
         <v>331.65829145728645</v>
       </c>
-      <c r="J25" s="95">
+      <c r="J25" s="87">
         <f>(J39/(1-L39))*$E$2</f>
         <v>231.15577889447238</v>
       </c>
-      <c r="K25" s="95">
+      <c r="K25" s="87">
         <f>(K39/(1-L39))*$E$2</f>
         <v>5.0251256281406871</v>
       </c>
-      <c r="L25" s="111">
+      <c r="L25" s="99">
         <f>SUM(G25:K25)</f>
         <v>1000.0000000000001</v>
       </c>
-      <c r="N25" s="101"/>
-      <c r="O25" s="89" t="s">
+      <c r="N25" s="138"/>
+      <c r="O25" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="P25" s="90" t="s">
+      <c r="P25" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="Q25" s="90"/>
-      <c r="R25" s="91" t="s">
+      <c r="Q25" s="141"/>
+      <c r="R25" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="S25" s="91" t="s">
+      <c r="S25" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="T25" s="91" t="s">
+      <c r="T25" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="U25" s="92">
+      <c r="U25" s="85">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D26" s="49"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="126" t="s">
+      <c r="D26" s="48"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="124">
+      <c r="G26" s="147">
         <f>G25/$L$7</f>
         <v>0.43216080402010049</v>
       </c>
-      <c r="H26" s="124"/>
-      <c r="I26" s="125">
+      <c r="H26" s="147"/>
+      <c r="I26" s="111">
         <f t="shared" ref="I26" si="18">I25/$L$7</f>
         <v>0.33165829145728642</v>
       </c>
-      <c r="J26" s="125">
+      <c r="J26" s="111">
         <f t="shared" ref="J26" si="19">J25/$L$7</f>
         <v>0.23115577889447236</v>
       </c>
-      <c r="K26" s="125">
+      <c r="K26" s="111">
         <f t="shared" ref="K26" si="20">K25/$L$7</f>
         <v>5.0251256281406871E-3</v>
       </c>
-      <c r="L26" s="112">
+      <c r="L26" s="100">
         <f>SUM(G26:K26)</f>
         <v>1</v>
       </c>
-      <c r="N26" s="132"/>
-      <c r="O26" s="133" t="s">
+      <c r="N26" s="139"/>
+      <c r="O26" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="P26" s="134"/>
-      <c r="Q26" s="134"/>
-      <c r="R26" s="135"/>
-      <c r="S26" s="135"/>
-      <c r="T26" s="135"/>
-      <c r="U26" s="136"/>
+      <c r="P26" s="142"/>
+      <c r="Q26" s="142"/>
+      <c r="R26" s="118"/>
+      <c r="S26" s="118"/>
+      <c r="T26" s="118"/>
+      <c r="U26" s="119"/>
     </row>
     <row r="27" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D27" s="49"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="98" t="s">
+      <c r="D27" s="48"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="G27" s="99">
+      <c r="G27" s="151">
         <f>G23/G25</f>
-        <v>9.0116279069767435E-2</v>
-      </c>
-      <c r="H27" s="99"/>
-      <c r="I27" s="141">
-        <v>0.9</v>
-      </c>
-      <c r="J27" s="141">
-        <v>0.9</v>
-      </c>
-      <c r="K27" s="141">
-        <v>0.9</v>
-      </c>
-      <c r="L27" s="113"/>
+        <v>0.34755813953488379</v>
+      </c>
+      <c r="H27" s="151"/>
+      <c r="I27" s="122">
+        <v>0.65</v>
+      </c>
+      <c r="J27" s="122">
+        <v>0.78</v>
+      </c>
+      <c r="K27" s="122">
+        <v>0.78</v>
+      </c>
+      <c r="L27" s="101"/>
     </row>
     <row r="28" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D28" s="108"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="118"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="83"/>
+      <c r="L28" s="106"/>
     </row>
     <row r="29" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D29" s="108"/>
-      <c r="E29" s="84" t="s">
+      <c r="D29" s="96"/>
+      <c r="E29" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="F29" s="85" t="s">
+      <c r="F29" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="86">
+      <c r="G29" s="152">
         <f>L29-K29-J29-I29</f>
-        <v>76.411290322580612</v>
-      </c>
-      <c r="H29" s="86"/>
-      <c r="I29" s="87">
+        <v>180.18145161290317</v>
+      </c>
+      <c r="H29" s="152"/>
+      <c r="I29" s="82">
         <f>I33*I31</f>
-        <v>281.25</v>
-      </c>
-      <c r="J29" s="87">
+        <v>203.125</v>
+      </c>
+      <c r="J29" s="82">
         <f t="shared" ref="J29:K29" si="21">J33*J31</f>
-        <v>172.37903225806451</v>
-      </c>
-      <c r="K29" s="87">
+        <v>149.39516129032259</v>
+      </c>
+      <c r="K29" s="82">
         <f t="shared" si="21"/>
-        <v>19.959677419354893</v>
-      </c>
-      <c r="L29" s="109">
+        <v>17.298387096774238</v>
+      </c>
+      <c r="L29" s="97">
         <v>550</v>
       </c>
-      <c r="N29" s="127" t="s">
+      <c r="N29" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="O29" s="128"/>
-      <c r="P29" s="129" t="s">
+      <c r="O29" s="114"/>
+      <c r="P29" s="136" t="s">
         <v>45</v>
       </c>
-      <c r="Q29" s="129"/>
-      <c r="R29" s="130" t="s">
+      <c r="Q29" s="136"/>
+      <c r="R29" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="S29" s="130" t="s">
+      <c r="S29" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="T29" s="130" t="s">
+      <c r="T29" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="131"/>
+      <c r="U29" s="116"/>
     </row>
     <row r="30" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D30" s="108"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="89" t="s">
+      <c r="D30" s="96"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="90">
+      <c r="G30" s="141">
         <f>G31-G29</f>
-        <v>397.37903225806451</v>
-      </c>
-      <c r="H30" s="90"/>
-      <c r="I30" s="91">
+        <v>293.60887096774195</v>
+      </c>
+      <c r="H30" s="141"/>
+      <c r="I30" s="84">
         <f t="shared" ref="I30" si="22">I31-I29</f>
-        <v>31.25</v>
-      </c>
-      <c r="J30" s="91">
+        <v>109.375</v>
+      </c>
+      <c r="J30" s="84">
         <f t="shared" ref="J30" si="23">J31-J29</f>
-        <v>19.153225806451616</v>
-      </c>
-      <c r="K30" s="91">
+        <v>42.137096774193537</v>
+      </c>
+      <c r="K30" s="84">
         <f>K31-K29</f>
-        <v>2.2177419354838754</v>
-      </c>
-      <c r="L30" s="110">
+        <v>4.8790322580645302</v>
+      </c>
+      <c r="L30" s="98">
         <v>450</v>
       </c>
-      <c r="N30" s="100" t="s">
+      <c r="N30" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="O30" s="85" t="s">
+      <c r="O30" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="P30" s="137">
+      <c r="P30" s="140">
         <f>(G31*G33/1000)/0.55</f>
-        <v>0.13892961876832838</v>
-      </c>
-      <c r="Q30" s="137"/>
-      <c r="R30" s="138">
+        <v>0.32760263929618755</v>
+      </c>
+      <c r="Q30" s="140"/>
+      <c r="R30" s="120">
         <f>(I31*I33/1000)/0.55</f>
-        <v>0.51136363636363635</v>
-      </c>
-      <c r="S30" s="138">
+        <v>0.36931818181818177</v>
+      </c>
+      <c r="S30" s="120">
         <f>(J31*J33/1000)/0.55</f>
-        <v>0.31341642228738997</v>
-      </c>
-      <c r="T30" s="138">
+        <v>0.27162756598240473</v>
+      </c>
+      <c r="T30" s="120">
         <f>(K31*K33/1000)/0.55</f>
-        <v>3.6290322580645254E-2</v>
-      </c>
-      <c r="U30" s="142">
+        <v>3.1451612903225887E-2</v>
+      </c>
+      <c r="U30" s="123">
         <f>SUM(P30:T30)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D31" s="108"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="93" t="s">
+      <c r="D31" s="96"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="94">
+      <c r="G31" s="146">
         <f>((G40+H40)/(1-L40))*$E$2</f>
         <v>473.79032258064512</v>
       </c>
-      <c r="H31" s="94"/>
-      <c r="I31" s="95">
+      <c r="H31" s="146"/>
+      <c r="I31" s="87">
         <f>(I40/(1-L40))*$E$2</f>
         <v>312.5</v>
       </c>
-      <c r="J31" s="95">
+      <c r="J31" s="87">
         <f>(J40/(1-L40))*$E$2</f>
         <v>191.53225806451613</v>
       </c>
-      <c r="K31" s="95">
+      <c r="K31" s="87">
         <f>(K40/(1-L40))*$E$2</f>
         <v>22.177419354838769</v>
       </c>
-      <c r="L31" s="111">
+      <c r="L31" s="99">
         <f>SUM(G31:K31)</f>
         <v>1000</v>
       </c>
-      <c r="N31" s="101"/>
-      <c r="O31" s="89" t="s">
+      <c r="N31" s="138"/>
+      <c r="O31" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="P31" s="90" t="s">
+      <c r="P31" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="Q31" s="90"/>
-      <c r="R31" s="91" t="s">
+      <c r="Q31" s="141"/>
+      <c r="R31" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="S31" s="91" t="s">
+      <c r="S31" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="T31" s="91" t="s">
+      <c r="T31" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="U31" s="92">
+      <c r="U31" s="85">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D32" s="108"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="126" t="s">
+      <c r="D32" s="96"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="124">
+      <c r="G32" s="147">
         <f>G31/$L$7</f>
         <v>0.47379032258064513</v>
       </c>
-      <c r="H32" s="124"/>
-      <c r="I32" s="125">
+      <c r="H32" s="147"/>
+      <c r="I32" s="111">
         <f t="shared" ref="I32" si="24">I31/$L$7</f>
         <v>0.3125</v>
       </c>
-      <c r="J32" s="125">
+      <c r="J32" s="111">
         <f t="shared" ref="J32" si="25">J31/$L$7</f>
         <v>0.19153225806451613</v>
       </c>
-      <c r="K32" s="125">
+      <c r="K32" s="111">
         <f t="shared" ref="K32" si="26">K31/$L$7</f>
         <v>2.217741935483877E-2</v>
       </c>
-      <c r="L32" s="112">
+      <c r="L32" s="100">
         <f>SUM(G32:K32)</f>
         <v>1</v>
       </c>
-      <c r="N32" s="132"/>
-      <c r="O32" s="133" t="s">
+      <c r="N32" s="139"/>
+      <c r="O32" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="P32" s="134"/>
-      <c r="Q32" s="134"/>
-      <c r="R32" s="135"/>
-      <c r="S32" s="135"/>
-      <c r="T32" s="135"/>
-      <c r="U32" s="136"/>
+      <c r="P32" s="142"/>
+      <c r="Q32" s="142"/>
+      <c r="R32" s="118"/>
+      <c r="S32" s="118"/>
+      <c r="T32" s="118"/>
+      <c r="U32" s="119"/>
     </row>
     <row r="33" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="50"/>
-      <c r="E33" s="119"/>
-      <c r="F33" s="120" t="s">
+      <c r="D33" s="49"/>
+      <c r="E33" s="107"/>
+      <c r="F33" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="G33" s="121">
+      <c r="G33" s="148">
         <f>G29/G31</f>
-        <v>0.16127659574468078</v>
-      </c>
-      <c r="H33" s="121"/>
-      <c r="I33" s="144">
-        <v>0.9</v>
-      </c>
-      <c r="J33" s="144">
-        <v>0.9</v>
-      </c>
-      <c r="K33" s="144">
-        <v>0.9</v>
-      </c>
-      <c r="L33" s="122"/>
+        <v>0.38029787234042545</v>
+      </c>
+      <c r="H33" s="148"/>
+      <c r="I33" s="122">
+        <v>0.65</v>
+      </c>
+      <c r="J33" s="122">
+        <v>0.78</v>
+      </c>
+      <c r="K33" s="122">
+        <v>0.78</v>
+      </c>
+      <c r="L33" s="109"/>
     </row>
     <row r="34" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F34" s="64"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="66"/>
-      <c r="L34" s="65"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="64"/>
     </row>
     <row r="35" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D35" s="123" t="s">
+      <c r="D35" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="46" t="s">
+      <c r="E35" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F35" s="73"/>
-      <c r="G35" s="74" t="s">
+      <c r="F35" s="72"/>
+      <c r="G35" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="H35" s="74" t="s">
+      <c r="H35" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="I35" s="74" t="s">
+      <c r="I35" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="J35" s="74" t="s">
+      <c r="J35" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="K35" s="74" t="s">
+      <c r="K35" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="L35" s="75" t="s">
+      <c r="L35" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="M35" s="28"/>
+      <c r="M35" s="27"/>
     </row>
     <row r="36" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D36" s="76" t="s">
+      <c r="D36" s="144" t="s">
         <v>47</v>
       </c>
-      <c r="E36" s="29" t="s">
+      <c r="E36" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F36" s="36"/>
-      <c r="G36" s="77">
+      <c r="F36" s="35"/>
+      <c r="G36" s="75">
         <v>0.15</v>
       </c>
-      <c r="H36" s="77">
+      <c r="H36" s="75">
         <v>0.5</v>
       </c>
-      <c r="I36" s="77">
+      <c r="I36" s="75">
         <v>0.25</v>
       </c>
-      <c r="J36" s="77">
+      <c r="J36" s="75">
         <v>0.1</v>
       </c>
-      <c r="K36" s="77">
+      <c r="K36" s="75">
         <v>0</v>
       </c>
-      <c r="L36" s="78">
+      <c r="L36" s="76">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D37" s="76"/>
-      <c r="E37" s="29" t="s">
+      <c r="D37" s="144"/>
+      <c r="E37" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F37" s="36"/>
-      <c r="G37" s="77">
+      <c r="F37" s="35"/>
+      <c r="G37" s="75">
         <v>0.09</v>
       </c>
-      <c r="H37" s="77">
+      <c r="H37" s="75">
         <v>0.48</v>
       </c>
-      <c r="I37" s="77">
+      <c r="I37" s="75">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J37" s="77">
+      <c r="J37" s="75">
         <v>0.14799999999999999</v>
       </c>
-      <c r="K37" s="77">
+      <c r="K37" s="75">
         <v>9.9999999999997313E-4</v>
       </c>
-      <c r="L37" s="78">
+      <c r="L37" s="76">
         <v>1E-3</v>
       </c>
     </row>
     <row r="38" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D38" s="76"/>
-      <c r="E38" s="29" t="s">
+      <c r="D38" s="144"/>
+      <c r="E38" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="F38" s="36"/>
-      <c r="G38" s="77">
+      <c r="F38" s="35"/>
+      <c r="G38" s="75">
         <v>0.05</v>
       </c>
-      <c r="H38" s="77">
+      <c r="H38" s="75">
         <v>0.42</v>
       </c>
-      <c r="I38" s="77">
+      <c r="I38" s="75">
         <v>0.32</v>
       </c>
-      <c r="J38" s="77">
+      <c r="J38" s="75">
         <v>0.2</v>
       </c>
-      <c r="K38" s="77">
+      <c r="K38" s="75">
         <v>6.9999999999999368E-3</v>
       </c>
-      <c r="L38" s="78">
+      <c r="L38" s="76">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="39" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D39" s="76"/>
-      <c r="E39" s="29" t="s">
+      <c r="D39" s="144"/>
+      <c r="E39" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="36"/>
-      <c r="G39" s="77">
+      <c r="F39" s="35"/>
+      <c r="G39" s="75">
         <v>0.04</v>
       </c>
-      <c r="H39" s="77">
+      <c r="H39" s="75">
         <v>0.39</v>
       </c>
-      <c r="I39" s="77">
+      <c r="I39" s="75">
         <v>0.33</v>
       </c>
-      <c r="J39" s="77">
+      <c r="J39" s="75">
         <v>0.23</v>
       </c>
-      <c r="K39" s="77">
+      <c r="K39" s="75">
         <v>4.9999999999999836E-3</v>
       </c>
-      <c r="L39" s="78">
+      <c r="L39" s="76">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="40" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D40" s="79"/>
-      <c r="E40" s="80" t="s">
+      <c r="D40" s="145"/>
+      <c r="E40" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="F40" s="81"/>
-      <c r="G40" s="82">
+      <c r="F40" s="78"/>
+      <c r="G40" s="79">
         <v>0.05</v>
       </c>
-      <c r="H40" s="82">
+      <c r="H40" s="79">
         <v>0.42</v>
       </c>
-      <c r="I40" s="82">
+      <c r="I40" s="79">
         <v>0.31</v>
       </c>
-      <c r="J40" s="82">
+      <c r="J40" s="79">
         <v>0.19</v>
       </c>
-      <c r="K40" s="82">
+      <c r="K40" s="79">
         <v>2.2000000000000061E-2</v>
       </c>
-      <c r="L40" s="83">
+      <c r="L40" s="80">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="41" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
     </row>
     <row r="42" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
     </row>
     <row r="43" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
     </row>
     <row r="44" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="28"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E11:E13"/>
     <mergeCell ref="N2:U2"/>
     <mergeCell ref="P29:Q29"/>
     <mergeCell ref="N30:N32"/>
@@ -9190,48 +9263,6 @@
     <mergeCell ref="N12:N14"/>
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9239,27 +9270,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W24" sqref="W24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9287,43 +9303,43 @@
       </c>
     </row>
     <row r="3" spans="2:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="126" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="147" t="s">
+      <c r="C3" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="147" t="s">
+      <c r="D3" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="147" t="s">
+      <c r="E3" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="147" t="s">
+      <c r="F3" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="147" t="s">
+      <c r="G3" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="147" t="s">
+      <c r="H3" s="126" t="s">
         <v>75</v>
       </c>
-      <c r="I3" s="147" t="s">
+      <c r="I3" s="126" t="s">
         <v>69</v>
       </c>
-      <c r="J3" s="147" t="s">
+      <c r="J3" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="K3" s="147" t="s">
+      <c r="K3" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="L3" s="147" t="s">
+      <c r="L3" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="M3" s="147" t="s">
+      <c r="M3" s="126" t="s">
         <v>86</v>
       </c>
-      <c r="N3" s="147" t="s">
+      <c r="N3" s="126" t="s">
         <v>85</v>
       </c>
     </row>
@@ -9340,13 +9356,13 @@
       <c r="E4" s="1">
         <v>0.6</v>
       </c>
-      <c r="F4" s="149" t="s">
+      <c r="F4" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="150" t="s">
+      <c r="G4" s="129" t="s">
         <v>83</v>
       </c>
-      <c r="H4" s="149" t="s">
+      <c r="H4" s="128" t="s">
         <v>52</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -9381,10 +9397,10 @@
       <c r="E5" s="1">
         <v>0.6</v>
       </c>
-      <c r="F5" s="149" t="s">
+      <c r="F5" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="150" t="s">
+      <c r="G5" s="129" t="s">
         <v>83</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -9422,10 +9438,10 @@
       <c r="E6" s="1">
         <v>0.6</v>
       </c>
-      <c r="F6" s="149" t="s">
+      <c r="F6" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="150" t="s">
+      <c r="G6" s="129" t="s">
         <v>83</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -9463,10 +9479,10 @@
       <c r="E7" s="1">
         <v>0.6</v>
       </c>
-      <c r="F7" s="149" t="s">
+      <c r="F7" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="150" t="s">
+      <c r="G7" s="129" t="s">
         <v>83</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -9507,56 +9523,56 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="2:20" s="146" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="147" t="s">
+    <row r="10" spans="2:20" s="125" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="126" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="147" t="s">
+      <c r="C10" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="147" t="s">
+      <c r="D10" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="147" t="s">
+      <c r="E10" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="147" t="s">
+      <c r="F10" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="147" t="s">
+      <c r="G10" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="147" t="s">
+      <c r="H10" s="126" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="147" t="s">
+      <c r="I10" s="126" t="s">
         <v>69</v>
       </c>
-      <c r="J10" s="147" t="s">
+      <c r="J10" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="147" t="s">
+      <c r="K10" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="L10" s="147" t="s">
+      <c r="L10" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="M10" s="147" t="s">
+      <c r="M10" s="126" t="s">
         <v>86</v>
       </c>
-      <c r="N10" s="147" t="s">
+      <c r="N10" s="126" t="s">
         <v>85</v>
       </c>
-      <c r="Q10" s="146" t="s">
+      <c r="Q10" s="125" t="s">
         <v>63</v>
       </c>
-      <c r="R10" s="148">
+      <c r="R10" s="127">
         <v>1</v>
       </c>
-      <c r="S10" s="145" t="s">
+      <c r="S10" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="T10" s="145" t="s">
+      <c r="T10" s="124" t="s">
         <v>65</v>
       </c>
     </row>
@@ -9573,13 +9589,13 @@
       <c r="E11" s="1">
         <v>0.6</v>
       </c>
-      <c r="F11" s="149" t="s">
+      <c r="F11" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="150" t="s">
+      <c r="G11" s="129" t="s">
         <v>83</v>
       </c>
-      <c r="H11" s="149" t="s">
+      <c r="H11" s="128" t="s">
         <v>77</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -9623,10 +9639,10 @@
       <c r="E12" s="1">
         <v>0.6</v>
       </c>
-      <c r="F12" s="149" t="s">
+      <c r="F12" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="149" t="s">
+      <c r="G12" s="128" t="s">
         <v>84</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -9673,10 +9689,10 @@
       <c r="E13" s="1">
         <v>0.6</v>
       </c>
-      <c r="F13" s="149" t="s">
+      <c r="F13" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="149" t="s">
+      <c r="G13" s="128" t="s">
         <v>84</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -9714,10 +9730,10 @@
       <c r="E14" s="1">
         <v>0.6</v>
       </c>
-      <c r="F14" s="149" t="s">
+      <c r="F14" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="149" t="s">
+      <c r="G14" s="128" t="s">
         <v>84</v>
       </c>
       <c r="H14" s="1" t="s">
